--- a/ComputedResults/Area/SixBorderVowels/Norwagian/MFCC/Mother/6_bordervowels_mfcc_no_ADS_M.xlsx
+++ b/ComputedResults/Area/SixBorderVowels/Norwagian/MFCC/Mother/6_bordervowels_mfcc_no_ADS_M.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1831156.125276466</v>
+        <v>1831156</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6817171.040453305</v>
+        <v>6817171</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4460034.929824189</v>
+        <v>4460035</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3883018.048154679</v>
+        <v>3883018</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4640951.16565326</v>
+        <v>4640951</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3034896.640561392</v>
+        <v>3034897</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2704385.950348177</v>
+        <v>2704386</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2073905.112043712</v>
+        <v>2073905</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4523202.966067355</v>
+        <v>4523203</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1796727.344760765</v>
+        <v>1796727</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3681149.393198703</v>
+        <v>3681149</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5274560.107490836</v>
+        <v>5274560</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5641763.473354895</v>
+        <v>5641763</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5871899.895520392</v>
+        <v>5871900</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2680687.97566581</v>
+        <v>2680688</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3657531.320774924</v>
+        <v>3657531</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3382785.41006949</v>
+        <v>3382785</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8296026.789163046</v>
+        <v>8296027</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5763707.759916623</v>
+        <v>5763708</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3511936.748013732</v>
+        <v>3511937</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3434590.874975302</v>
+        <v>3434591</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4913499.225657891</v>
+        <v>4913499</v>
       </c>
     </row>
     <row r="24">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3249331.675634928</v>
+        <v>3249332</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4346560.810745384</v>
+        <v>4346561</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2150324.016370646</v>
+        <v>2150324</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4255709.557642702</v>
+        <v>4255710</v>
       </c>
     </row>
     <row r="28">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2701552.666227696</v>
+        <v>2701553</v>
       </c>
     </row>
     <row r="29">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5456957.029602583</v>
+        <v>5456957</v>
       </c>
     </row>
     <row r="30">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3839186.493101576</v>
+        <v>3839186</v>
       </c>
     </row>
     <row r="31">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5965741.903813932</v>
+        <v>5965742</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1210311.607126591</v>
+        <v>1210312</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2407257.131278135</v>
+        <v>2407257</v>
       </c>
     </row>
     <row r="34">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4059307.325530332</v>
+        <v>4059307</v>
       </c>
     </row>
     <row r="35">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4131042.578472018</v>
+        <v>4131043</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3638425.594960665</v>
+        <v>3638426</v>
       </c>
     </row>
     <row r="37">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3426866.182998475</v>
+        <v>3426866</v>
       </c>
     </row>
     <row r="38">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2278407.789416173</v>
+        <v>2278408</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1963143.395513731</v>
+        <v>1963143</v>
       </c>
     </row>
     <row r="40">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1891202.727544163</v>
+        <v>1891203</v>
       </c>
     </row>
     <row r="41">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3697386.370124674</v>
+        <v>3697386</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1585373.795044078</v>
+        <v>1585374</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3351861.498287417</v>
+        <v>3351861</v>
       </c>
     </row>
     <row r="44">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2927874.650770145</v>
+        <v>2927875</v>
       </c>
     </row>
     <row r="45">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1383362.16042167</v>
+        <v>1383362</v>
       </c>
     </row>
     <row r="46">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1355093.926256957</v>
+        <v>1355094</v>
       </c>
     </row>
     <row r="47">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4000347.879620929</v>
+        <v>4000348</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4635948.971857718</v>
+        <v>4635949</v>
       </c>
     </row>
     <row r="49">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4769661.292498824</v>
+        <v>4769661</v>
       </c>
     </row>
     <row r="50">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2993131.849981144</v>
+        <v>2993132</v>
       </c>
     </row>
     <row r="51">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3494643.933411694</v>
+        <v>3494644</v>
       </c>
     </row>
     <row r="52">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2331955.916507369</v>
+        <v>2331956</v>
       </c>
     </row>
     <row r="53">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2822444.087343699</v>
+        <v>2822444</v>
       </c>
     </row>
     <row r="54">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3761641.502059629</v>
+        <v>3761642</v>
       </c>
     </row>
     <row r="55">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>8233824.651356462</v>
+        <v>8233825</v>
       </c>
     </row>
     <row r="56">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4866474.245119086</v>
+        <v>4866474</v>
       </c>
     </row>
     <row r="57">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1766162.894452553</v>
+        <v>1766163</v>
       </c>
     </row>
     <row r="58">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2555375.035797546</v>
+        <v>2555375</v>
       </c>
     </row>
     <row r="59">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1952147.323039902</v>
+        <v>1952147</v>
       </c>
     </row>
     <row r="60">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2164475.441742503</v>
+        <v>2164475</v>
       </c>
     </row>
     <row r="61">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1889937.270497846</v>
+        <v>1889937</v>
       </c>
     </row>
     <row r="62">
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>4378320.455407979</v>
+        <v>4378320</v>
       </c>
     </row>
     <row r="63">
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4327938.425568606</v>
+        <v>4327938</v>
       </c>
     </row>
     <row r="64">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3443117.015296006</v>
+        <v>3443117</v>
       </c>
     </row>
     <row r="65">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5574026.644395964</v>
+        <v>5574027</v>
       </c>
     </row>
     <row r="66">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>4823097.217616756</v>
+        <v>4823097</v>
       </c>
     </row>
     <row r="67">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3527498.543336703</v>
+        <v>3527499</v>
       </c>
     </row>
     <row r="68">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>6311712.995464241</v>
+        <v>6311713</v>
       </c>
     </row>
     <row r="69">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>4549267.72901333</v>
+        <v>4549268</v>
       </c>
     </row>
     <row r="70">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>5237728.522172184</v>
+        <v>5237729</v>
       </c>
     </row>
     <row r="71">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>9993624.420447787</v>
+        <v>9993624</v>
       </c>
     </row>
     <row r="72">
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9701065.573503999</v>
+        <v>9701066</v>
       </c>
     </row>
     <row r="73">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3036601.443311157</v>
+        <v>3036601</v>
       </c>
     </row>
     <row r="74">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>5858176.070967222</v>
+        <v>5858176</v>
       </c>
     </row>
     <row r="75">
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2394567.027399878</v>
+        <v>2394567</v>
       </c>
     </row>
     <row r="76">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>5406766.962201546</v>
+        <v>5406767</v>
       </c>
     </row>
     <row r="77">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>9132210.559536997</v>
+        <v>9132211</v>
       </c>
     </row>
     <row r="78">
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7241269.310636953</v>
+        <v>7241269</v>
       </c>
     </row>
     <row r="79">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>7878089.698855305</v>
+        <v>7878090</v>
       </c>
     </row>
     <row r="80">
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5799832.72749819</v>
+        <v>5799833</v>
       </c>
     </row>
     <row r="81">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3364876.68062757</v>
+        <v>3364877</v>
       </c>
     </row>
     <row r="82">
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4650027.395244205</v>
+        <v>4650027</v>
       </c>
     </row>
     <row r="83">
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>3431185.704715892</v>
+        <v>3431186</v>
       </c>
     </row>
     <row r="84">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2946640.254827422</v>
+        <v>2946640</v>
       </c>
     </row>
     <row r="85">
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>5279159.599554119</v>
+        <v>5279160</v>
       </c>
     </row>
     <row r="86">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5839687.978374567</v>
+        <v>5839688</v>
       </c>
     </row>
     <row r="87">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>5247302.575873889</v>
+        <v>5247303</v>
       </c>
     </row>
     <row r="88">
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2755416.60167265</v>
+        <v>2755417</v>
       </c>
     </row>
     <row r="89">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5378594.243462515</v>
+        <v>5378594</v>
       </c>
     </row>
     <row r="90">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>6521844.536264189</v>
+        <v>6521845</v>
       </c>
     </row>
     <row r="91">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2210022.69406641</v>
+        <v>2210023</v>
       </c>
     </row>
     <row r="92">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1959542.670455518</v>
+        <v>1959543</v>
       </c>
     </row>
     <row r="93">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2494498.044675594</v>
+        <v>2494498</v>
       </c>
     </row>
     <row r="94">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2854933.703305166</v>
+        <v>2854934</v>
       </c>
     </row>
     <row r="95">
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5377390.439910013</v>
+        <v>5377390</v>
       </c>
     </row>
     <row r="96">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4529124.897243191</v>
+        <v>4529125</v>
       </c>
     </row>
     <row r="97">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4068184.668285905</v>
+        <v>4068185</v>
       </c>
     </row>
     <row r="98">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3506265.217027179</v>
+        <v>3506265</v>
       </c>
     </row>
     <row r="99">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>7671492.029503412</v>
+        <v>7671492</v>
       </c>
     </row>
     <row r="100">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>7687037.225497577</v>
+        <v>7687037</v>
       </c>
     </row>
     <row r="101">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>6097117.520234948</v>
+        <v>6097118</v>
       </c>
     </row>
     <row r="102">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>12859289.10018825</v>
+        <v>12859289</v>
       </c>
     </row>
     <row r="103">
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>4325409.328506576</v>
+        <v>4325409</v>
       </c>
     </row>
     <row r="104">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>4466297.537614588</v>
+        <v>4466298</v>
       </c>
     </row>
     <row r="105">
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2381644.826738274</v>
+        <v>2381645</v>
       </c>
     </row>
     <row r="106">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>7275436.469474774</v>
+        <v>7275436</v>
       </c>
     </row>
     <row r="107">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>3706046.377511106</v>
+        <v>3706046</v>
       </c>
     </row>
     <row r="108">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2825605.974141388</v>
+        <v>2825606</v>
       </c>
     </row>
     <row r="109">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1727854.123568438</v>
+        <v>1727854</v>
       </c>
     </row>
     <row r="110">
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>6332840.688358672</v>
+        <v>6332841</v>
       </c>
     </row>
     <row r="111">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>5156114.552589461</v>
+        <v>5156115</v>
       </c>
     </row>
     <row r="112">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>2260360.604025214</v>
+        <v>2260361</v>
       </c>
     </row>
     <row r="113">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2567914.973164507</v>
+        <v>2567915</v>
       </c>
     </row>
     <row r="114">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>3003533.624738392</v>
+        <v>3003534</v>
       </c>
     </row>
     <row r="115">
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>5980960.848267701</v>
+        <v>5980961</v>
       </c>
     </row>
     <row r="116">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>6311951.010213263</v>
+        <v>6311951</v>
       </c>
     </row>
     <row r="117">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>6128127.834369601</v>
+        <v>6128128</v>
       </c>
     </row>
     <row r="118">
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>21574772.74737483</v>
+        <v>21574773</v>
       </c>
     </row>
     <row r="119">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1611953.309569412</v>
+        <v>1611953</v>
       </c>
     </row>
     <row r="120">
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1928072.092684017</v>
+        <v>1928072</v>
       </c>
     </row>
     <row r="121">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1915823.876026388</v>
+        <v>1915824</v>
       </c>
     </row>
     <row r="122">
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>2613306.434356395</v>
+        <v>2613306</v>
       </c>
     </row>
     <row r="123">
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>7777512.079238843</v>
+        <v>7777512</v>
       </c>
     </row>
     <row r="124">
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7046863.32791763</v>
+        <v>7046863</v>
       </c>
     </row>
     <row r="125">
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>5599169.215980797</v>
+        <v>5599169</v>
       </c>
     </row>
     <row r="126">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>5940049.724172465</v>
+        <v>5940050</v>
       </c>
     </row>
     <row r="127">
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>8298957.49231705</v>
+        <v>8298957</v>
       </c>
     </row>
     <row r="128">
@@ -2738,7 +2738,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4006943.883348192</v>
+        <v>4006944</v>
       </c>
     </row>
     <row r="129">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>4629935.458079379</v>
+        <v>4629935</v>
       </c>
     </row>
     <row r="130">
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1081637.892080432</v>
+        <v>1081638</v>
       </c>
     </row>
     <row r="131">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3903675.241617754</v>
+        <v>3903675</v>
       </c>
     </row>
     <row r="132">
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>2557860.314562503</v>
+        <v>2557860</v>
       </c>
     </row>
     <row r="133">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2719093.753683407</v>
+        <v>2719094</v>
       </c>
     </row>
     <row r="134">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2821329.183209719</v>
+        <v>2821329</v>
       </c>
     </row>
     <row r="135">
@@ -2864,7 +2864,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>2204028.407135613</v>
+        <v>2204028</v>
       </c>
     </row>
     <row r="136">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>3564570.460105804</v>
+        <v>3564570</v>
       </c>
     </row>
     <row r="137">
@@ -2900,7 +2900,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>5959226.299585922</v>
+        <v>5959226</v>
       </c>
     </row>
     <row r="138">
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>5182138.701860835</v>
+        <v>5182139</v>
       </c>
     </row>
     <row r="139">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>6838093.871586697</v>
+        <v>6838094</v>
       </c>
     </row>
     <row r="140">
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1433677.877343872</v>
+        <v>1433678</v>
       </c>
     </row>
     <row r="141">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2653124.7018811</v>
+        <v>2653125</v>
       </c>
     </row>
     <row r="142">
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2677782.880447929</v>
+        <v>2677783</v>
       </c>
     </row>
     <row r="143">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>4161582.282528454</v>
+        <v>4161582</v>
       </c>
     </row>
     <row r="144">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>5721599.885669595</v>
+        <v>5721600</v>
       </c>
     </row>
     <row r="145">
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>4708762.528131916</v>
+        <v>4708763</v>
       </c>
     </row>
     <row r="146">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>4474808.570190131</v>
+        <v>4474809</v>
       </c>
     </row>
     <row r="147">
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>5879548.601172024</v>
+        <v>5879549</v>
       </c>
     </row>
     <row r="148">
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4507573.623310791</v>
+        <v>4507574</v>
       </c>
     </row>
     <row r="149">
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>6353702.333120344</v>
+        <v>6353702</v>
       </c>
     </row>
     <row r="150">
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>5628683.036743199</v>
+        <v>5628683</v>
       </c>
     </row>
     <row r="151">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>3706205.43861598</v>
+        <v>3706205</v>
       </c>
     </row>
     <row r="152">
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>4284249.648901208</v>
+        <v>4284250</v>
       </c>
     </row>
     <row r="153">
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2692412.543543611</v>
+        <v>2692413</v>
       </c>
     </row>
     <row r="154">
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>3133183.862744757</v>
+        <v>3133184</v>
       </c>
     </row>
     <row r="155">
@@ -3224,7 +3224,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1926122.059501995</v>
+        <v>1926122</v>
       </c>
     </row>
     <row r="156">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>993716.8388097913</v>
+        <v>993717</v>
       </c>
     </row>
     <row r="157">
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1680548.077893103</v>
+        <v>1680548</v>
       </c>
     </row>
     <row r="158">
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2102711.078162508</v>
+        <v>2102711</v>
       </c>
     </row>
     <row r="159">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>3729004.433620874</v>
+        <v>3729004</v>
       </c>
     </row>
     <row r="160">
@@ -3314,7 +3314,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>3624430.810016472</v>
+        <v>3624431</v>
       </c>
     </row>
     <row r="161">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>3326913.149412096</v>
+        <v>3326913</v>
       </c>
     </row>
     <row r="162">
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>5337624.943033652</v>
+        <v>5337625</v>
       </c>
     </row>
     <row r="163">
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>4764194.59659793</v>
+        <v>4764195</v>
       </c>
     </row>
     <row r="164">
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2019953.279478</v>
+        <v>2019953</v>
       </c>
     </row>
     <row r="165">
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>4488916.557353768</v>
+        <v>4488917</v>
       </c>
     </row>
     <row r="166">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>5067679.971643649</v>
+        <v>5067680</v>
       </c>
     </row>
     <row r="167">
@@ -3440,7 +3440,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>4164746.506555873</v>
+        <v>4164747</v>
       </c>
     </row>
     <row r="168">
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>3214335.268374207</v>
+        <v>3214335</v>
       </c>
     </row>
     <row r="169">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>3175453.004691135</v>
+        <v>3175453</v>
       </c>
     </row>
     <row r="170">
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1714015.605173203</v>
+        <v>1714016</v>
       </c>
     </row>
     <row r="171">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>2621536.057736066</v>
+        <v>2621536</v>
       </c>
     </row>
     <row r="172">
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1399759.191361974</v>
+        <v>1399759</v>
       </c>
     </row>
     <row r="173">
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6930695.456041045</v>
+        <v>6930695</v>
       </c>
     </row>
     <row r="174">
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>6467579.159074042</v>
+        <v>6467579</v>
       </c>
     </row>
     <row r="175">
@@ -3584,7 +3584,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>5325213.811450566</v>
+        <v>5325214</v>
       </c>
     </row>
     <row r="176">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>6815154.362539025</v>
+        <v>6815154</v>
       </c>
     </row>
     <row r="177">
@@ -3620,7 +3620,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>976202.8486244418</v>
+        <v>976203</v>
       </c>
     </row>
     <row r="178">
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2217074.46187641</v>
+        <v>2217074</v>
       </c>
     </row>
     <row r="179">
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1619574.365181014</v>
+        <v>1619574</v>
       </c>
     </row>
     <row r="180">
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>2848251.534500082</v>
+        <v>2848252</v>
       </c>
     </row>
     <row r="181">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1707389.480634677</v>
+        <v>1707389</v>
       </c>
     </row>
     <row r="182">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2261782.785760819</v>
+        <v>2261783</v>
       </c>
     </row>
     <row r="183">
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3217637.369449542</v>
+        <v>3217637</v>
       </c>
     </row>
     <row r="184">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>4002711.455601498</v>
+        <v>4002711</v>
       </c>
     </row>
     <row r="185">
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>4031986.830149191</v>
+        <v>4031987</v>
       </c>
     </row>
     <row r="186">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>5142392.160577651</v>
+        <v>5142392</v>
       </c>
     </row>
     <row r="187">
@@ -3800,7 +3800,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2759716.087260252</v>
+        <v>2759716</v>
       </c>
     </row>
     <row r="188">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2029975.509596031</v>
+        <v>2029976</v>
       </c>
     </row>
     <row r="189">
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>5335097.084413123</v>
+        <v>5335097</v>
       </c>
     </row>
     <row r="190">
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2345117.03817173</v>
+        <v>2345117</v>
       </c>
     </row>
     <row r="191">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>4864998.81206663</v>
+        <v>4864999</v>
       </c>
     </row>
     <row r="192">
@@ -3890,7 +3890,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>12442221.99095238</v>
+        <v>12442222</v>
       </c>
     </row>
     <row r="193">
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2579589.174349296</v>
+        <v>2579589</v>
       </c>
     </row>
     <row r="194">
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>4849558.594434094</v>
+        <v>4849559</v>
       </c>
     </row>
     <row r="195">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>6432433.873695716</v>
+        <v>6432434</v>
       </c>
     </row>
     <row r="196">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4144731.36793064</v>
+        <v>4144731</v>
       </c>
     </row>
     <row r="197">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>4618358.619090258</v>
+        <v>4618359</v>
       </c>
     </row>
     <row r="198">
@@ -3998,7 +3998,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>3229436.739035633</v>
+        <v>3229437</v>
       </c>
     </row>
     <row r="199">
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>3008376.840063748</v>
+        <v>3008377</v>
       </c>
     </row>
     <row r="200">
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>3739006.581441798</v>
+        <v>3739007</v>
       </c>
     </row>
     <row r="201">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>4461486.976765214</v>
+        <v>4461487</v>
       </c>
     </row>
     <row r="202">
@@ -4070,7 +4070,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>3765673.013289447</v>
+        <v>3765673</v>
       </c>
     </row>
   </sheetData>
